--- a/medicine/Enfance/Gunnel_Linde/Gunnel_Linde.xlsx
+++ b/medicine/Enfance/Gunnel_Linde/Gunnel_Linde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gunnel Linde est une romancière et réalisatrice suédoise née le 14 octobre 1924 à Stockholm et morte le 12 juin 2014[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gunnel Linde est une romancière et réalisatrice suédoise née le 14 octobre 1924 à Stockholm et morte le 12 juin 2014.
 Elle a notamment scénarisé le feuilleton télévisé La Pierre blanche, tiré de son roman intitulé Exploits pour une pierre blanche (Den vita stenen en suédois).
 Elle a reçu le Prix Nils Holgersson en 1965 et en 1975.
 </t>
@@ -513,9 +525,11 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1964 : (international) « Runner-Up List »[2], de l' IBBY, pour Tills...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1964 : (international) « Runner-Up List », de l' IBBY, pour Tills...
 1965 : Prix Nils-Holgersson
 1975 : Prix Nils-Holgersson
 1978 : Prix Astrid-Lindgren</t>
